--- a/data/diary_log.xlsx
+++ b/data/diary_log.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Capstone\Diary_Sentiment_Analysis\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\S\AI_Diary\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>diary</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,6 +99,30 @@
   </si>
   <si>
     <t>기쁨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">모두들 메리크리스마스! 캡디B 황보현교수님 8조 화이팅! </t>
+  </si>
+  <si>
+    <t>공포</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(오징어게임 대사) 나 너무 무서워... 이러다 다 죽어!</t>
+  </si>
+  <si>
+    <t>아 너무 슬프다... 종강 너무 슬퍼..</t>
+  </si>
+  <si>
+    <t>슬픔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">오늘은 무슨 날일지 나도 잘 모르겠어. </t>
+  </si>
+  <si>
+    <t>불안</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -107,7 +131,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="179" formatCode="yyyy&quot;-&quot;m&quot;-&quot;d;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;-&quot;m&quot;-&quot;d;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -152,7 +176,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -435,16 +459,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="12.296875" customWidth="1"/>
     <col min="2" max="2" width="32" customWidth="1"/>
+    <col min="3" max="3" width="16.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
@@ -544,6 +569,50 @@
       </c>
       <c r="C9" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" s="1">
+        <v>44544</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" s="1">
+        <v>44544</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" s="1">
+        <v>44544</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" s="1">
+        <v>44544</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
